--- a/2020/September/All Details/01.09.2020/MC Balance Transfer September 2020.xlsx
+++ b/2020/September/All Details/01.09.2020/MC Balance Transfer September 2020.xlsx
@@ -1140,6 +1140,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,12 +1189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,7 +1234,7 @@
         <xdr:cNvPr id="1317" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1246,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1269,14 +1269,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1584,9 +1584,9 @@
   <dimension ref="A1:BI246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1611,14 +1611,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
       <c r="L1" s="17"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
@@ -1671,14 +1671,14 @@
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
       <c r="L2" s="17"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1731,14 +1731,14 @@
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
       <c r="K3" s="7"/>
       <c r="L3" s="17"/>
       <c r="M3" s="7"/>
@@ -1874,14 +1874,14 @@
         <v>628620</v>
       </c>
       <c r="C5" s="104">
-        <v>499280</v>
+        <v>509280</v>
       </c>
       <c r="D5" s="104">
         <v>1490</v>
       </c>
       <c r="E5" s="104">
         <f>C5+D5</f>
-        <v>500770</v>
+        <v>510770</v>
       </c>
       <c r="F5" s="106"/>
       <c r="G5" s="17"/>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C33" s="2">
         <f>SUM(C5:C32)</f>
-        <v>499280</v>
+        <v>509280</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D5:D32)</f>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="E33" s="2">
         <f>SUM(E5:E32)</f>
-        <v>500770</v>
+        <v>510770</v>
       </c>
       <c r="F33" s="67">
         <f>B33-E33</f>
-        <v>127850</v>
+        <v>117850</v>
       </c>
       <c r="G33" s="81"/>
       <c r="H33" s="86" t="s">
@@ -3928,12 +3928,12 @@
       <c r="BI34" s="7"/>
     </row>
     <row r="35" spans="1:61" ht="12.6" customHeight="1" thickBot="1">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="155"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="157"/>
       <c r="E35" s="6"/>
       <c r="F35" s="67"/>
       <c r="G35" s="81"/>
@@ -4500,13 +4500,13 @@
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="149" t="s">
+      <c r="F43" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="151"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="153"/>
       <c r="K43" s="5"/>
       <c r="L43" s="30"/>
       <c r="M43" s="7"/>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B52" s="70"/>
       <c r="C52" s="134">
-        <v>184630</v>
+        <v>174630</v>
       </c>
       <c r="D52" s="128" t="s">
         <v>76</v>
@@ -5776,10 +5776,10 @@
         <v>73</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="148" t="s">
+      <c r="F62" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="148"/>
+      <c r="G62" s="150"/>
       <c r="H62" s="120"/>
       <c r="I62" s="120"/>
       <c r="J62" s="55" t="s">
@@ -8636,8 +8636,8 @@
       <c r="BI97" s="7"/>
     </row>
     <row r="98" spans="1:61">
-      <c r="A98" s="156"/>
-      <c r="B98" s="157"/>
+      <c r="A98" s="141"/>
+      <c r="B98" s="142"/>
       <c r="C98" s="71"/>
       <c r="D98" s="70"/>
       <c r="F98" s="112"/>
@@ -8706,8 +8706,8 @@
       <c r="BI98" s="140"/>
     </row>
     <row r="99" spans="1:61">
-      <c r="A99" s="156"/>
-      <c r="B99" s="157"/>
+      <c r="A99" s="141"/>
+      <c r="B99" s="142"/>
       <c r="C99" s="71"/>
       <c r="D99" s="70"/>
       <c r="F99" s="112"/>
@@ -8776,10 +8776,10 @@
       <c r="BI99" s="140"/>
     </row>
     <row r="100" spans="1:61">
-      <c r="A100" s="156" t="s">
+      <c r="A100" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="B100" s="157" t="s">
+      <c r="B100" s="142" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="71">
@@ -8854,10 +8854,10 @@
       <c r="BI100" s="140"/>
     </row>
     <row r="101" spans="1:61">
-      <c r="A101" s="156" t="s">
+      <c r="A101" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="157" t="s">
+      <c r="B101" s="142" t="s">
         <v>69</v>
       </c>
       <c r="C101" s="71">
@@ -8932,10 +8932,10 @@
       <c r="BI101" s="140"/>
     </row>
     <row r="102" spans="1:61">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="B102" s="157"/>
+      <c r="B102" s="142"/>
       <c r="C102" s="71">
         <v>6070</v>
       </c>
@@ -9008,10 +9008,10 @@
       <c r="BI102" s="140"/>
     </row>
     <row r="103" spans="1:61">
-      <c r="A103" s="156" t="s">
+      <c r="A103" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="157" t="s">
+      <c r="B103" s="142" t="s">
         <v>37</v>
       </c>
       <c r="C103" s="71">
@@ -9086,10 +9086,10 @@
       <c r="BI103" s="140"/>
     </row>
     <row r="104" spans="1:61">
-      <c r="A104" s="156" t="s">
+      <c r="A104" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="B104" s="157"/>
+      <c r="B104" s="142"/>
       <c r="C104" s="71">
         <v>460</v>
       </c>
@@ -9162,10 +9162,10 @@
       <c r="BI104" s="140"/>
     </row>
     <row r="105" spans="1:61">
-      <c r="A105" s="156" t="s">
+      <c r="A105" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="B105" s="157" t="s">
+      <c r="B105" s="142" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="71">
@@ -9240,10 +9240,10 @@
       <c r="BI105" s="140"/>
     </row>
     <row r="106" spans="1:61">
-      <c r="A106" s="156" t="s">
+      <c r="A106" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="157" t="s">
+      <c r="B106" s="142" t="s">
         <v>72</v>
       </c>
       <c r="C106" s="71">
@@ -9318,10 +9318,10 @@
       <c r="BI106" s="140"/>
     </row>
     <row r="107" spans="1:61">
-      <c r="A107" s="156" t="s">
+      <c r="A107" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="157" t="s">
+      <c r="B107" s="142" t="s">
         <v>37</v>
       </c>
       <c r="C107" s="71">
@@ -9396,10 +9396,10 @@
       <c r="BI107" s="140"/>
     </row>
     <row r="108" spans="1:61">
-      <c r="A108" s="156" t="s">
+      <c r="A108" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B108" s="157" t="s">
+      <c r="B108" s="142" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="71">
@@ -9474,10 +9474,10 @@
       <c r="BI108" s="140"/>
     </row>
     <row r="109" spans="1:61">
-      <c r="A109" s="156" t="s">
+      <c r="A109" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="157">
+      <c r="B109" s="142">
         <v>1763999686</v>
       </c>
       <c r="C109" s="71">
@@ -9552,10 +9552,10 @@
       <c r="BI109" s="140"/>
     </row>
     <row r="110" spans="1:61">
-      <c r="A110" s="156" t="s">
+      <c r="A110" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B110" s="157">
+      <c r="B110" s="142">
         <v>1758900692</v>
       </c>
       <c r="C110" s="71">
@@ -9632,10 +9632,10 @@
       <c r="BI110" s="140"/>
     </row>
     <row r="111" spans="1:61">
-      <c r="A111" s="156" t="s">
+      <c r="A111" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="B111" s="157" t="s">
+      <c r="B111" s="142" t="s">
         <v>37</v>
       </c>
       <c r="C111" s="71">
@@ -9710,8 +9710,8 @@
       <c r="BI111" s="140"/>
     </row>
     <row r="112" spans="1:61">
-      <c r="A112" s="156"/>
-      <c r="B112" s="157"/>
+      <c r="A112" s="141"/>
+      <c r="B112" s="142"/>
       <c r="C112" s="71"/>
       <c r="D112" s="70"/>
       <c r="F112" s="112"/>
@@ -9780,13 +9780,13 @@
       <c r="BI112" s="140"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="146" t="s">
+      <c r="A113" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="147"/>
+      <c r="B113" s="149"/>
       <c r="C113" s="32">
         <f>SUM(C37:C112)</f>
-        <v>2184188</v>
+        <v>2174188</v>
       </c>
       <c r="D113" s="28"/>
       <c r="F113" s="110"/>
@@ -9931,13 +9931,13 @@
       <c r="BI114" s="7"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="144" t="s">
+      <c r="A115" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="145"/>
+      <c r="B115" s="147"/>
       <c r="C115" s="29">
         <f>C113+L136</f>
-        <v>2184188</v>
+        <v>2174188</v>
       </c>
       <c r="D115" s="21"/>
       <c r="F115" s="48"/>
@@ -11917,8 +11917,8 @@
       <c r="J169" s="17"/>
     </row>
     <row r="170" spans="5:13">
-      <c r="F170" s="143"/>
-      <c r="G170" s="143"/>
+      <c r="F170" s="145"/>
+      <c r="G170" s="145"/>
       <c r="H170" s="7"/>
       <c r="I170" s="38"/>
       <c r="J170" s="17"/>
